--- a/APM files/135460914/VR APM Bulk OB Intake form - Jan 2025 Travelio (240 units).xlsx
+++ b/APM files/135460914/VR APM Bulk OB Intake form - Jan 2025 Travelio (240 units).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135460914/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED12A935-094A-9D4E-A936-A5ABD9DF336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D08C6E-22B6-C04E-8F9F-9E28CDF316D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27040" firstSheet="1" activeTab="2" xr2:uid="{5ACC1F44-282C-4223-A1C1-EFBFFE18FF03}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11567" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11567" uniqueCount="1276">
   <si>
     <t>Welcome to the Expedia Group!</t>
   </si>
@@ -4920,6 +4920,9 @@
   </si>
   <si>
     <t>112056467</t>
+  </si>
+  <si>
+    <t>112056437</t>
   </si>
 </sst>
 </file>
@@ -6414,16 +6417,6 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -6713,16 +6706,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFC00000"/>
@@ -6907,6 +6890,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFC00000"/>
@@ -6955,16 +6958,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="2"/>
@@ -6982,6 +6975,16 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -46861,11 +46864,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="50" priority="13">
+      <formula>AND(#REF!="",#REF!="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="12">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="13">
-      <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG1:BH1">
@@ -47144,9 +47147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C47550-47D9-4529-BDE3-79834CC4DF07}">
   <dimension ref="A1:P246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -56887,9 +56890,9 @@
       <c r="O221" s="145"/>
       <c r="P221" s="145"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A222" s="37" t="s">
-        <v>1184</v>
+    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1275</v>
       </c>
       <c r="B222" s="145" t="s">
         <v>679</v>
@@ -57989,76 +57992,76 @@
     </row>
   </sheetData>
   <phoneticPr fontId="37" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:B246">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C6 B247:C1048576">
-    <cfRule type="expression" dxfId="44" priority="17">
+    <cfRule type="expression" dxfId="42" priority="17">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C6">
-    <cfRule type="containsText" dxfId="43" priority="18" operator="containsText" text="Input here">
+    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="Input here">
       <formula>NOT(ISERROR(SEARCH("Input here",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 M3:M6">
-    <cfRule type="expression" dxfId="42" priority="14">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>SEARCH("_1",$D3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="41" priority="166">
+    <cfRule type="expression" dxfId="39" priority="166">
       <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>SEARCH("No",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule type="expression" dxfId="39" priority="173">
+    <cfRule type="expression" dxfId="37" priority="173">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:O6 D3:L6 D1:K2">
-    <cfRule type="expression" dxfId="38" priority="131">
+    <cfRule type="expression" dxfId="36" priority="131">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N6">
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>$K3&lt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O6 E3:L3 D4:L6">
-    <cfRule type="expression" dxfId="36" priority="44">
+    <cfRule type="expression" dxfId="34" priority="44">
       <formula>SEARCH("_1",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P6">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>$K3&lt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P6">
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="32" priority="10">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P6">
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>SEARCH("_1",#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{AB403D6D-0604-4244-8111-7DD9834F4648}">
@@ -58353,115 +58356,115 @@
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <conditionalFormatting sqref="B4:B7">
-    <cfRule type="expression" dxfId="31" priority="58">
+    <cfRule type="expression" dxfId="30" priority="58">
       <formula>IF(#REF!="No",#REF!="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="containsText" dxfId="30" priority="50" operator="containsText" text="Click and choose from list">
-      <formula>NOT(ISERROR(SEARCH("Click and choose from list",B4)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="Answer here">
       <formula>NOT(ISERROR(SEARCH("Answer here",B4)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="Click and choose from list">
+      <formula>NOT(ISERROR(SEARCH("Click and choose from list",B4)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Overwrite and input a custom rate NAME">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Overwrite and input a custom rate NAME">
       <formula>NOT(ISERROR(SEARCH("Overwrite and input a custom rate NAME",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:I8">
-    <cfRule type="containsText" dxfId="27" priority="48" operator="containsText" text="Click and Choose from list">
-      <formula>NOT(ISERROR(SEARCH("Click and Choose from list",B4)))</formula>
-    </cfRule>
     <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="Answer here">
       <formula>NOT(ISERROR(SEARCH("Answer here",B4)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="48" operator="containsText" text="Click and Choose from list">
+      <formula>NOT(ISERROR(SEARCH("Click and Choose from list",B4)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E8 F5:I5">
-    <cfRule type="expression" dxfId="25" priority="42">
+    <cfRule type="expression" dxfId="24" priority="42">
       <formula>OR($B$5="Click and choose from list",$B$5="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:E8">
-    <cfRule type="expression" dxfId="24" priority="104">
+    <cfRule type="expression" dxfId="23" priority="104">
       <formula>IF(#REF!="No",#REF!="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:G1048576">
-    <cfRule type="containsText" dxfId="23" priority="102" operator="containsText" text="Click and choose from list">
+    <cfRule type="containsText" dxfId="22" priority="102" operator="containsText" text="Click and choose from list">
       <formula>NOT(ISERROR(SEARCH("Click and choose from list",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="103" operator="containsText" text="Answer here">
+    <cfRule type="containsText" dxfId="21" priority="103" operator="containsText" text="Answer here">
       <formula>NOT(ISERROR(SEARCH("Answer here",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I8">
-    <cfRule type="containsText" dxfId="21" priority="66" operator="containsText" text="Click and choose from list">
+    <cfRule type="containsText" dxfId="20" priority="66" operator="containsText" text="Click and choose from list">
       <formula>NOT(ISERROR(SEARCH("Click and choose from list",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Answer here">
+    <cfRule type="containsText" dxfId="19" priority="67" operator="containsText" text="Answer here">
       <formula>NOT(ISERROR(SEARCH("Answer here",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:I4">
-    <cfRule type="expression" dxfId="19" priority="43">
+    <cfRule type="expression" dxfId="18" priority="43">
       <formula>OR($B$4="Click and choose from list",$B$4="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 G7">
-    <cfRule type="containsText" dxfId="18" priority="47" operator="containsText" text="Default is 0">
+    <cfRule type="containsText" dxfId="17" priority="47" operator="containsText" text="Default is 0">
       <formula>NOT(ISERROR(SEARCH("Default is 0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="containsText" dxfId="17" priority="40" operator="containsText" text="update rules">
+    <cfRule type="containsText" dxfId="16" priority="40" operator="containsText" text="update rules">
       <formula>NOT(ISERROR(SEARCH("update rules",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G1048576">
-    <cfRule type="containsText" dxfId="16" priority="100" operator="containsText" text="Click and Choose from list">
+    <cfRule type="containsText" dxfId="15" priority="100" operator="containsText" text="Click and Choose from list">
       <formula>NOT(ISERROR(SEARCH("Click and Choose from list",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="101" operator="containsText" text="Answer here">
+    <cfRule type="containsText" dxfId="14" priority="101" operator="containsText" text="Answer here">
       <formula>NOT(ISERROR(SEARCH("Answer here",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:I2">
-    <cfRule type="containsText" dxfId="14" priority="84" operator="containsText" text="Click and Choose from list">
+    <cfRule type="containsText" dxfId="13" priority="84" operator="containsText" text="Click and Choose from list">
       <formula>NOT(ISERROR(SEARCH("Click and Choose from list",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="85" operator="containsText" text="Answer here">
+    <cfRule type="containsText" dxfId="12" priority="85" operator="containsText" text="Answer here">
       <formula>NOT(ISERROR(SEARCH("Answer here",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:I6">
-    <cfRule type="expression" dxfId="12" priority="41">
+    <cfRule type="expression" dxfId="11" priority="41">
       <formula>OR($B$6="Click and choose from list",$B$6="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:I7">
-    <cfRule type="expression" dxfId="11" priority="36">
+    <cfRule type="expression" dxfId="10" priority="36">
       <formula>OR($B$7="Click and choose from list",$B$7="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:I8">
-    <cfRule type="expression" dxfId="10" priority="39">
+    <cfRule type="expression" dxfId="9" priority="39">
       <formula>$B$8="Overwrite and input a custom rate NAME"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576 H4:I8">
-    <cfRule type="containsText" dxfId="9" priority="46" operator="containsText" text="Default is 500">
+    <cfRule type="containsText" dxfId="8" priority="46" operator="containsText" text="Default is 500">
       <formula>NOT(ISERROR(SEARCH("Default is 500",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="45" operator="containsText" text="Default is 1">
+    <cfRule type="containsText" dxfId="7" priority="45" operator="containsText" text="Default is 1">
       <formula>NOT(ISERROR(SEARCH("Default is 1",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="7" priority="44" operator="containsText" text="Default is 28">
+    <cfRule type="containsText" dxfId="6" priority="44" operator="containsText" text="Default is 28">
       <formula>NOT(ISERROR(SEARCH("Default is 28",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63476,32 +63479,32 @@
     <mergeCell ref="E2:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:A245">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5 A246:B1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Input here">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Input here">
       <formula>NOT(ISERROR(SEARCH("Input here",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E$1="Booking total amount and fee setup"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:G5 I3:P5 E6:L245 N6:P245 E246:P823 C3:D823">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>SEARCH("_1",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:P2 G3:G5 I3:P5 G6:L245 N6:P245 G246:P1048576">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$E$2="It was registered in the [Partner Questions] that no fees will be charged, you may leave all the columns in the right blank since no Service Charges are to be setup"</formula>
     </cfRule>
   </conditionalFormatting>
